--- a/data/xlsx/MA.xlsx
+++ b/data/xlsx/MA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/sites/codeforiati/gov-id-finder-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5B470E-AD39-7C43-ACB5-4A25B5BFFA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B727151-8E48-AE47-9FF1-4536FABFB0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16000" xr2:uid="{8DB593FA-44D8-7E40-9E02-2E2334CED77C}"/>
+    <workbookView xWindow="47560" yWindow="1060" windowWidth="27640" windowHeight="16000" xr2:uid="{8DB593FA-44D8-7E40-9E02-2E2334CED77C}"/>
   </bookViews>
   <sheets>
     <sheet name="MA" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
   <si>
     <t>Numéros des chapitres</t>
   </si>
@@ -322,6 +322,60 @@
   </si>
   <si>
     <t>name_en</t>
+  </si>
+  <si>
+    <t>MINISTERE DE LA SANTE ET DE LA PROTECTION SOCIALE</t>
+  </si>
+  <si>
+    <t>MINISTÈRE DE L'ECONOMIE ET DES FINANCES</t>
+  </si>
+  <si>
+    <t>MINISTÈRE DU TOURISME, DE L'ARTISANAT ET DE L'ECONOMIE SOCIALE ET SOLIDAIRE</t>
+  </si>
+  <si>
+    <t>MINISTERE DE L'EQUIPEMENT ET DE L'EAU</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>MINISTERE DU TRANSPORT ET DE LA LOGISTIQUE</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>MINISTERE DELEGUE AUPRES DU CHEF DU GOUVERNEMENT CHARGE DE L'INVESTISSEMENT, DE LA CONVERGENCE ET DE L'EVALUATION DES POLITIQUES PUBLIQUES</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>MINISTERE DE LA TRANSITION ENERGETIQUE ET DU DEVELOPPEMENT DURABLE</t>
+  </si>
+  <si>
+    <t>MINISTÈRE DE L'INDUSTRIE ET DU COMMERCE</t>
+  </si>
+  <si>
+    <t>MINISTÈRE DE LA CULTURE, DE LA JEUNESSE  ET DE LA COMMUNICATION</t>
+  </si>
+  <si>
+    <t>MINISTERE DE L'INCLUSION ECONOMIQUE, DE LA PETITE ENTREPRISE, DE L'EMPLOI ET DES COMPETENCES</t>
+  </si>
+  <si>
+    <t>MINISTERE DELEGUE AUPRES DU CHEF DU GOUVERNEMENT CHARGE DES RELATIONS AVEC LE PARLEMENT</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>MINISTERE DELEGUE AUPRES DU CHEF DU GOUVERNEMENT CHARGE DE LA TRANSITION NUMERIQUE ET DE LA REFORME DE L'ADMINISRATION</t>
+  </si>
+  <si>
+    <t>MINISTERE DE LA SOLIDARITÉ, DE L'INSERTION SOCIALE ET DE LA FAMILLE</t>
   </si>
 </sst>
 </file>
@@ -363,9 +417,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,9 +439,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +479,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -530,7 +585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1583DCC4-49CC-CB4F-A4E5-6B8B3AC03643}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,230 +772,274 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>76</v>
+      <c r="A15" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>79</v>
+      <c r="A18" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>80</v>
+      <c r="A19" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>84</v>
+      <c r="A23" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>85</v>
+      <c r="A24" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>92</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
